--- a/doc/test2.xlsx
+++ b/doc/test2.xlsx
@@ -4,15 +4,16 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="12540"/>
+    <workbookView windowWidth="24225" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId3"/>
     <externalReference r:id="rId4"/>
+    <externalReference r:id="rId5"/>
   </externalReferences>
   <definedNames>
     <definedName name="CLSC">'[1]#REF!'!$B$1</definedName>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="65">
   <si>
     <t>报告编号：</t>
   </si>
@@ -480,6 +481,39 @@
   </si>
   <si>
     <t>69万</t>
+  </si>
+  <si>
+    <t>第1季度增值税纳税额</t>
+  </si>
+  <si>
+    <t>第2季度增值税纳税额</t>
+  </si>
+  <si>
+    <t>第3季度增值税纳税额</t>
+  </si>
+  <si>
+    <t>第4季度增值税纳税额</t>
+  </si>
+  <si>
+    <t>2017年</t>
+  </si>
+  <si>
+    <t>2018年</t>
+  </si>
+  <si>
+    <t>2019年</t>
+  </si>
+  <si>
+    <t>第1季度企业所得税</t>
+  </si>
+  <si>
+    <t>第2季度企业所得税</t>
+  </si>
+  <si>
+    <t>第3季度企业所得税</t>
+  </si>
+  <si>
+    <t>第4季度企业所得税</t>
   </si>
 </sst>
 </file>
@@ -564,15 +598,9 @@
       <charset val="0"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
@@ -584,7 +612,80 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FF1F497D"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF1F497D"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
@@ -602,53 +703,6 @@
       <charset val="0"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF1F497D"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color rgb="FF1F497D"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color rgb="FF1F497D"/>
@@ -657,30 +711,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color rgb="FF1F497D"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
     </font>
     <font>
       <b/>
@@ -735,19 +769,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF9BBB59"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF4F81BD"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE6B8B7"/>
+        <fgColor rgb="FF8064A2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -759,31 +781,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF95B3D7"/>
+        <fgColor rgb="FFFCD5B4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFDCE6F1"/>
+        <fgColor rgb="FFC0504D"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDA9694"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFB7DEE8"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -795,7 +805,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFDAEEF3"/>
+        <fgColor rgb="FFFDE9D9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF95B3D7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -813,7 +835,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92CDDC"/>
+        <fgColor rgb="FFFABF8F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -825,19 +853,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFB8CCE4"/>
+        <fgColor rgb="FF92CDDC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFDCE6F1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFB1A0C7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDA9694"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF79646"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4BACC6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9BBB59"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB8CCE4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -849,19 +907,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFB1A0C7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFDE9D9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC0504D"/>
+        <fgColor rgb="FFE4DFEC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -873,25 +919,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFDAEEF3"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF79646"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF8064A2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE4DFEC"/>
+        <fgColor rgb="FFB7DEE8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -903,29 +943,88 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF4BACC6"/>
+        <fgColor rgb="FFE6B8B7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFCD5B4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFABF8F"/>
+        <fgColor rgb="FF4F81BD"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF4F81BD"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF4F81BD"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -944,17 +1043,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFA7BFDE"/>
       </bottom>
       <diagonal/>
     </border>
@@ -977,52 +1070,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color rgb="FF4F81BD"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF4F81BD"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF4F81BD"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FFA7BFDE"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1034,10 +1083,10 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1046,138 +1095,141 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
@@ -2253,13 +2305,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>227330</xdr:colOff>
+      <xdr:colOff>237490</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>163195</xdr:colOff>
+      <xdr:colOff>173355</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>167005</xdr:rowOff>
     </xdr:to>
@@ -2278,7 +2330,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7325360" y="3181350"/>
+          <a:off x="7335520" y="3181350"/>
           <a:ext cx="4589780" cy="3113405"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2952,8 +3004,8 @@
   </sheetPr>
   <dimension ref="B1:K26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5"/>
@@ -2968,373 +3020,373 @@
   </cols>
   <sheetData>
     <row r="1" ht="16.5" spans="2:11">
-      <c r="B1" s="1"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
     </row>
     <row r="2" ht="16.5" spans="2:11">
-      <c r="B2" s="1"/>
-      <c r="C2" s="3" t="s">
+      <c r="B2" s="2"/>
+      <c r="C2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3" t="s">
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="1"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="2"/>
     </row>
     <row r="3" spans="2:11">
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
     </row>
     <row r="4" ht="27" customHeight="1" spans="2:11">
-      <c r="B4" s="1"/>
-      <c r="C4" s="11" t="s">
+      <c r="B4" s="2"/>
+      <c r="C4" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="1"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="2"/>
     </row>
     <row r="5" ht="16.5" spans="2:11">
-      <c r="B5" s="1"/>
-      <c r="C5" s="12" t="s">
+      <c r="B5" s="2"/>
+      <c r="C5" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12" t="s">
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="1"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="2"/>
     </row>
     <row r="6" ht="16.5" spans="2:11">
-      <c r="B6" s="1"/>
-      <c r="C6" s="12" t="s">
+      <c r="B6" s="2"/>
+      <c r="C6" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12" t="s">
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="1"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="2"/>
     </row>
     <row r="7" ht="16.5" spans="2:11">
-      <c r="B7" s="1"/>
-      <c r="C7" s="12" t="s">
+      <c r="B7" s="2"/>
+      <c r="C7" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12" t="s">
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="1"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="2"/>
     </row>
     <row r="8" ht="16.5" spans="2:11">
-      <c r="B8" s="1"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="1"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="2"/>
     </row>
     <row r="9" ht="9" customHeight="1" spans="2:11">
-      <c r="B9" s="1"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
     </row>
     <row r="10" ht="21" customHeight="1" spans="2:11">
-      <c r="B10" s="1"/>
-      <c r="C10" s="11" t="s">
+      <c r="B10" s="2"/>
+      <c r="C10" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="1"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="2"/>
     </row>
     <row r="11" ht="16.5" spans="2:11">
-      <c r="B11" s="1"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="13" t="s">
+      <c r="B11" s="2"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="G11" s="14"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="1"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="2"/>
     </row>
     <row r="12" ht="16.5" spans="2:11">
-      <c r="B12" s="1"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="13" t="s">
+      <c r="B12" s="2"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="G12" s="15"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="1"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="2"/>
     </row>
     <row r="13" ht="16.5" spans="2:11">
-      <c r="B13" s="1"/>
-      <c r="D13" s="13" t="s">
+      <c r="B13" s="2"/>
+      <c r="D13" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="F13" s="17" t="s">
+      <c r="F13" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="G13" s="18"/>
-      <c r="K13" s="1"/>
+      <c r="G13" s="19"/>
+      <c r="K13" s="2"/>
     </row>
     <row r="14" spans="2:11">
-      <c r="B14" s="1"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="1"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="2"/>
     </row>
     <row r="15" ht="9" customHeight="1" spans="2:11">
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
     </row>
     <row r="16" ht="25" customHeight="1" spans="2:11">
-      <c r="B16" s="1"/>
-      <c r="C16" s="11" t="s">
+      <c r="B16" s="2"/>
+      <c r="C16" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="26"/>
-      <c r="J16" s="26"/>
-      <c r="K16" s="1"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="2"/>
     </row>
     <row r="17" ht="16.5" spans="2:11">
-      <c r="B17" s="1"/>
-      <c r="C17" s="19" t="s">
+      <c r="B17" s="2"/>
+      <c r="C17" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="12" t="s">
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="1"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="2"/>
     </row>
     <row r="18" ht="16.5" spans="2:11">
-      <c r="B18" s="1"/>
-      <c r="C18" s="12" t="s">
+      <c r="B18" s="2"/>
+      <c r="C18" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12" t="s">
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="1"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="2"/>
     </row>
     <row r="19" ht="16.5" spans="2:11">
-      <c r="B19" s="1"/>
-      <c r="C19" s="12" t="s">
+      <c r="B19" s="2"/>
+      <c r="C19" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="12" t="s">
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="1"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="2"/>
     </row>
     <row r="20" ht="16.5" spans="2:11">
-      <c r="B20" s="1"/>
-      <c r="C20" s="12" t="s">
+      <c r="B20" s="2"/>
+      <c r="C20" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12" t="s">
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="1"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="2"/>
     </row>
     <row r="21" ht="16.5" spans="2:11">
-      <c r="B21" s="1"/>
-      <c r="C21" s="12" t="s">
+      <c r="B21" s="2"/>
+      <c r="C21" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12" t="s">
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="1"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="2"/>
     </row>
     <row r="22" ht="16.5" spans="2:11">
-      <c r="B22" s="1"/>
-      <c r="C22" s="12" t="s">
+      <c r="B22" s="2"/>
+      <c r="C22" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12" t="s">
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="1"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="2"/>
     </row>
     <row r="23" ht="16.5" spans="2:11">
-      <c r="B23" s="1"/>
-      <c r="C23" s="12" t="s">
+      <c r="B23" s="2"/>
+      <c r="C23" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12" t="s">
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="1"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="2"/>
     </row>
     <row r="24" ht="16.5" spans="2:11">
-      <c r="B24" s="1"/>
-      <c r="C24" s="12" t="s">
+      <c r="B24" s="2"/>
+      <c r="C24" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12" t="s">
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="H24" s="12"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="12"/>
-      <c r="K24" s="1"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="2"/>
     </row>
     <row r="25" ht="16.5" spans="2:11">
-      <c r="B25" s="1"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="1"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="2"/>
     </row>
     <row r="26" spans="2:11">
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3374,426 +3426,426 @@
   </cols>
   <sheetData>
     <row r="1" ht="16.5" spans="2:11">
-      <c r="B1" s="1"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
     </row>
     <row r="2" ht="16.5" spans="2:11">
-      <c r="B2" s="1"/>
-      <c r="C2" s="3" t="s">
+      <c r="B2" s="2"/>
+      <c r="C2" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3" t="s">
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="1"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="2"/>
     </row>
     <row r="3" spans="2:11">
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
     </row>
     <row r="4" ht="21" customHeight="1" spans="2:11">
-      <c r="B4" s="1"/>
-      <c r="C4" s="4" t="s">
+      <c r="B4" s="2"/>
+      <c r="C4" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="1"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="2"/>
     </row>
     <row r="5" ht="16.5" spans="2:11">
-      <c r="B5" s="1"/>
-      <c r="C5" s="6" t="s">
+      <c r="B5" s="2"/>
+      <c r="C5" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="7" t="s">
+      <c r="D5" s="7"/>
+      <c r="E5" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6" t="s">
+      <c r="F5" s="7"/>
+      <c r="G5" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6" t="s">
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="K5" s="1"/>
+      <c r="K5" s="2"/>
     </row>
     <row r="6" ht="16.5" spans="2:11">
-      <c r="B6" s="1"/>
-      <c r="C6" s="6" t="s">
+      <c r="B6" s="2"/>
+      <c r="C6" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="7" t="s">
+      <c r="D6" s="7"/>
+      <c r="E6" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6" t="s">
+      <c r="F6" s="7"/>
+      <c r="G6" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6" t="s">
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="K6" s="1"/>
+      <c r="K6" s="2"/>
     </row>
     <row r="7" ht="16.5" spans="2:11">
-      <c r="B7" s="1"/>
-      <c r="C7" s="6" t="s">
+      <c r="B7" s="2"/>
+      <c r="C7" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="8">
+      <c r="D7" s="7"/>
+      <c r="E7" s="9">
         <v>43026</v>
       </c>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6" t="s">
+      <c r="F7" s="7"/>
+      <c r="G7" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6" t="s">
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="K7" s="1"/>
+      <c r="K7" s="2"/>
     </row>
     <row r="8" ht="16.5" spans="2:11">
-      <c r="B8" s="1"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="1"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="2"/>
     </row>
     <row r="9" ht="9" customHeight="1" spans="2:11">
-      <c r="B9" s="1"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
     </row>
     <row r="10" ht="21" customHeight="1" spans="2:11">
-      <c r="B10" s="1"/>
-      <c r="C10" s="11" t="s">
+      <c r="B10" s="2"/>
+      <c r="C10" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="1"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="2"/>
     </row>
     <row r="11" ht="16.5" spans="2:11">
-      <c r="B11" s="1"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="13" t="s">
+      <c r="B11" s="2"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="G11" s="14" t="s">
+      <c r="G11" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="1"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="2"/>
     </row>
     <row r="12" ht="16.5" spans="2:11">
-      <c r="B12" s="1"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="13" t="s">
+      <c r="B12" s="2"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="G12" s="15" t="s">
+      <c r="G12" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="H12" s="16"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="1"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="2"/>
     </row>
     <row r="13" ht="16.5" spans="2:11">
-      <c r="B13" s="1"/>
-      <c r="D13" s="13" t="s">
+      <c r="B13" s="2"/>
+      <c r="D13" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="F13" s="17" t="s">
+      <c r="F13" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="G13" s="18">
+      <c r="G13" s="19">
         <v>0.11</v>
       </c>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="1"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="2"/>
     </row>
     <row r="14" spans="2:11">
-      <c r="B14" s="1"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="1"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="2"/>
     </row>
     <row r="15" ht="9" customHeight="1" spans="2:11">
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
     </row>
     <row r="16" ht="21" customHeight="1" spans="2:11">
-      <c r="B16" s="1"/>
-      <c r="C16" s="4" t="s">
+      <c r="B16" s="2"/>
+      <c r="C16" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="1"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="2"/>
     </row>
     <row r="17" ht="16.5" spans="2:11">
-      <c r="B17" s="1"/>
-      <c r="C17" s="19" t="s">
+      <c r="B17" s="2"/>
+      <c r="C17" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="9"/>
-      <c r="E17" s="20" t="s">
+      <c r="D17" s="10"/>
+      <c r="E17" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="F17" s="9"/>
-      <c r="G17" s="12" t="s">
+      <c r="F17" s="10"/>
+      <c r="G17" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="24">
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="25">
         <v>18</v>
       </c>
-      <c r="K17" s="1"/>
+      <c r="K17" s="2"/>
     </row>
     <row r="18" ht="16.5" spans="2:11">
-      <c r="B18" s="1"/>
-      <c r="C18" s="12" t="s">
+      <c r="B18" s="2"/>
+      <c r="C18" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D18" s="12"/>
-      <c r="E18" s="20" t="s">
+      <c r="D18" s="13"/>
+      <c r="E18" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12" t="s">
+      <c r="F18" s="13"/>
+      <c r="G18" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="25">
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="26">
         <v>42767</v>
       </c>
-      <c r="K18" s="1"/>
+      <c r="K18" s="2"/>
     </row>
     <row r="19" ht="16.5" spans="2:11">
-      <c r="B19" s="1"/>
-      <c r="C19" s="19" t="s">
+      <c r="B19" s="2"/>
+      <c r="C19" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="D19" s="9"/>
-      <c r="E19" s="20" t="s">
+      <c r="D19" s="10"/>
+      <c r="E19" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="F19" s="9"/>
-      <c r="G19" s="12" t="s">
+      <c r="F19" s="10"/>
+      <c r="G19" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="24">
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="25">
         <v>0</v>
       </c>
-      <c r="K19" s="1"/>
+      <c r="K19" s="2"/>
     </row>
     <row r="20" ht="16.5" spans="2:11">
-      <c r="B20" s="1"/>
-      <c r="C20" s="12" t="s">
+      <c r="B20" s="2"/>
+      <c r="C20" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D20" s="12"/>
-      <c r="E20" s="20" t="s">
+      <c r="D20" s="13"/>
+      <c r="E20" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12" t="s">
+      <c r="F20" s="13"/>
+      <c r="G20" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="24">
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="25">
         <v>0</v>
       </c>
-      <c r="K20" s="1"/>
+      <c r="K20" s="2"/>
     </row>
     <row r="21" ht="16.5" spans="2:11">
-      <c r="B21" s="1"/>
-      <c r="C21" s="12" t="s">
+      <c r="B21" s="2"/>
+      <c r="C21" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D21" s="12"/>
-      <c r="E21" s="20">
+      <c r="D21" s="13"/>
+      <c r="E21" s="21">
         <v>37</v>
       </c>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12" t="s">
+      <c r="F21" s="13"/>
+      <c r="G21" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="24">
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="25">
         <v>1</v>
       </c>
-      <c r="K21" s="1"/>
+      <c r="K21" s="2"/>
     </row>
     <row r="22" ht="16.5" spans="2:11">
-      <c r="B22" s="1"/>
-      <c r="C22" s="12" t="s">
+      <c r="B22" s="2"/>
+      <c r="C22" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D22" s="12"/>
-      <c r="E22" s="21">
+      <c r="D22" s="13"/>
+      <c r="E22" s="22">
         <v>0.51</v>
       </c>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12" t="s">
+      <c r="F22" s="13"/>
+      <c r="G22" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="24">
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="25">
         <v>2</v>
       </c>
-      <c r="K22" s="1"/>
+      <c r="K22" s="2"/>
     </row>
     <row r="23" ht="16.5" spans="2:11">
-      <c r="B23" s="1"/>
-      <c r="C23" s="12" t="s">
+      <c r="B23" s="2"/>
+      <c r="C23" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="D23" s="12"/>
-      <c r="E23" s="22">
+      <c r="D23" s="13"/>
+      <c r="E23" s="23">
         <v>43160</v>
       </c>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12" t="s">
+      <c r="F23" s="13"/>
+      <c r="G23" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="24">
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="25">
         <v>0</v>
       </c>
-      <c r="K23" s="1"/>
+      <c r="K23" s="2"/>
     </row>
     <row r="24" ht="16.5" spans="2:11">
-      <c r="B24" s="1"/>
-      <c r="C24" s="12" t="s">
+      <c r="B24" s="2"/>
+      <c r="C24" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D24" s="12"/>
-      <c r="E24" s="20" t="s">
+      <c r="D24" s="13"/>
+      <c r="E24" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12" t="s">
+      <c r="F24" s="13"/>
+      <c r="G24" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="H24" s="12"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="24" t="s">
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="K24" s="1"/>
+      <c r="K24" s="2"/>
     </row>
     <row r="25" ht="16.5" spans="2:11">
-      <c r="B25" s="1"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="1"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="2"/>
     </row>
     <row r="26" spans="2:11">
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3805,4 +3857,156 @@
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A2:E13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <cols>
+    <col min="5" max="5" width="20.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="1">
+        <v>120000</v>
+      </c>
+      <c r="C3" s="1">
+        <v>132000</v>
+      </c>
+      <c r="D3" s="1">
+        <v>159820</v>
+      </c>
+      <c r="E3" s="1">
+        <v>180200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" s="1">
+        <v>200000</v>
+      </c>
+      <c r="C4" s="1">
+        <v>249087</v>
+      </c>
+      <c r="D4" s="1">
+        <v>269200</v>
+      </c>
+      <c r="E4" s="1">
+        <v>270911</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" s="1">
+        <v>320000</v>
+      </c>
+      <c r="C5" s="1">
+        <v>360021</v>
+      </c>
+      <c r="D5" s="1">
+        <v>384782</v>
+      </c>
+      <c r="E5" s="1">
+        <v>409830</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" s="1">
+        <v>120000</v>
+      </c>
+      <c r="C11" s="1">
+        <v>132000</v>
+      </c>
+      <c r="D11" s="1">
+        <v>159820</v>
+      </c>
+      <c r="E11" s="1">
+        <v>180200</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" s="1">
+        <v>200000</v>
+      </c>
+      <c r="C12" s="1">
+        <v>249087</v>
+      </c>
+      <c r="D12" s="1">
+        <v>269200</v>
+      </c>
+      <c r="E12" s="1">
+        <v>270911</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13" s="1">
+        <v>320000</v>
+      </c>
+      <c r="C13" s="1">
+        <v>360021</v>
+      </c>
+      <c r="D13" s="1">
+        <v>384782</v>
+      </c>
+      <c r="E13" s="1">
+        <v>409830</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/doc/test2.xlsx
+++ b/doc/test2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="12540" activeTab="2"/>
+    <workbookView windowWidth="24225" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -593,14 +593,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF000000"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
@@ -612,33 +605,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
@@ -650,21 +617,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color rgb="FF1F497D"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
@@ -683,13 +642,6 @@
       <charset val="0"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -698,7 +650,34 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FF1F497D"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
@@ -715,6 +694,27 @@
       <color rgb="FF1F497D"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
     </font>
     <font>
       <b/>
@@ -769,7 +769,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF8064A2"/>
+        <fgColor rgb="FFD8E4BC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -781,13 +781,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFCD5B4"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC0504D"/>
+        <fgColor rgb="FFEBF1DE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC4D79B"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB1A0C7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF95B3D7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDA9694"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -799,61 +841,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD8E4BC"/>
+        <fgColor rgb="FFE4DFEC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFDE9D9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF95B3D7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFEBF1DE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFABF8F"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC4D79B"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92CDDC"/>
+        <fgColor rgb="FFF2DCDB"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -865,19 +859,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFB1A0C7"/>
+        <fgColor rgb="FFCCC0DA"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFDA9694"/>
+        <fgColor rgb="FFE6B8B7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF79646"/>
+        <fgColor rgb="FFB8CCE4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFDE9D9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -895,25 +901,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFB8CCE4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE4DFEC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2DCDB"/>
+        <fgColor rgb="FFC0504D"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -925,7 +913,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FF8064A2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4F81BD"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -937,19 +931,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFCCC0DA"/>
+        <fgColor rgb="FF92CDDC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE6B8B7"/>
+        <fgColor rgb="FFF79646"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF4F81BD"/>
+        <fgColor rgb="FFFCD5B4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFABF8F"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -974,41 +974,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF4F81BD"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF4F81BD"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1052,6 +1017,39 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF4F81BD"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1069,8 +1067,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color rgb="FF4F81BD"/>
+      </top>
+      <bottom style="double">
         <color rgb="FF4F81BD"/>
       </bottom>
       <diagonal/>
@@ -1083,10 +1083,10 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1095,133 +1095,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3004,8 +3004,8 @@
   </sheetPr>
   <dimension ref="B1:K26"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="V18" sqref="V18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5"/>
@@ -3864,7 +3864,7 @@
   <sheetPr/>
   <dimension ref="A2:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>

--- a/doc/test2.xlsx
+++ b/doc/test2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="12540"/>
+    <workbookView windowWidth="28125" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -521,10 +521,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;;@"/>
+    <numFmt numFmtId="177" formatCode="_ \¥* #,##0_ ;_ \¥* \-#,##0_ ;_ \¥* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;;@"/>
-    <numFmt numFmtId="177" formatCode="_ \¥* #,##0_ ;_ \¥* \-#,##0_ ;_ \¥* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ \¥* #,##0.00_ ;_ \¥* \-#,##0.00_ ;_ \¥* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="30">
@@ -598,32 +598,29 @@
       <charset val="0"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color rgb="FF1F497D"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
@@ -637,14 +634,72 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color rgb="FF1F497D"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FF1F497D"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
@@ -657,62 +712,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color rgb="FF1F497D"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color rgb="FF1F497D"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color rgb="FF1F497D"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
@@ -769,91 +769,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD8E4BC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFEBF1DE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC4D79B"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFB1A0C7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF95B3D7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDA9694"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE4DFEC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2DCDB"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDCE6F1"/>
+        <fgColor rgb="FFB7DEE8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -883,31 +799,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFDE9D9"/>
+        <fgColor rgb="FFFCD5B4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD8E4BC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF4BACC6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF9BBB59"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC0504D"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDAEEF3"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -925,7 +835,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFB7DEE8"/>
+        <fgColor rgb="FFC0504D"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF79646"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9BBB59"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFABF8F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB1A0C7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF95B3D7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC4D79B"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFDE9D9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEBF1DE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -937,19 +925,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF79646"/>
+        <fgColor rgb="FFDA9694"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFCD5B4"/>
+        <fgColor rgb="FFE4DFEC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFABF8F"/>
+        <fgColor rgb="FFF2DCDB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDCE6F1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDAEEF3"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -978,6 +978,45 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF4F81BD"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -989,6 +1028,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF4F81BD"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF4F81BD"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFA7BFDE"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1011,67 +1070,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color rgb="FFA7BFDE"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF4F81BD"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF4F81BD"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF4F81BD"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1083,145 +1083,145 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3004,7 +3004,7 @@
   </sheetPr>
   <dimension ref="B1:K26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="V18" sqref="V18"/>
     </sheetView>
   </sheetViews>
@@ -3409,8 +3409,8 @@
   </sheetPr>
   <dimension ref="B1:K26"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H38" sqref="H38"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.71666666666667" defaultRowHeight="13.5"/>
